--- a/INTLINE/data/136/ISTAT/Business confidence Index in the manufacturing sector_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Business confidence Index in the manufacturing sector_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NN2"/>
+  <dimension ref="A1:NO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,6 +2252,11 @@
           <t>2022-05</t>
         </is>
       </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2617,7 +2622,7 @@
         <v>115</v>
       </c>
       <c r="DQ2" t="n">
-        <v>114.5</v>
+        <v>114.4</v>
       </c>
       <c r="DR2" t="n">
         <v>112.8</v>
@@ -2791,7 +2796,7 @@
         <v>104.3</v>
       </c>
       <c r="FW2" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="FX2" t="n">
         <v>105.8</v>
@@ -2896,7 +2901,7 @@
         <v>96.5</v>
       </c>
       <c r="HF2" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="HG2" t="n">
         <v>91.90000000000001</v>
@@ -2914,7 +2919,7 @@
         <v>74</v>
       </c>
       <c r="HL2" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="HM2" t="n">
         <v>77.5</v>
@@ -2995,7 +3000,7 @@
         <v>104.9</v>
       </c>
       <c r="IM2" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="IN2" t="n">
         <v>99.90000000000001</v>
@@ -3058,7 +3063,7 @@
         <v>89.5</v>
       </c>
       <c r="JH2" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="JI2" t="n">
         <v>88.8</v>
@@ -3070,22 +3075,22 @@
         <v>92.90000000000001</v>
       </c>
       <c r="JL2" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="JM2" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="JN2" t="n">
         <v>100.1</v>
       </c>
       <c r="JO2" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="JP2" t="n">
         <v>101.6</v>
       </c>
       <c r="JQ2" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="JR2" t="n">
         <v>101.4</v>
@@ -3094,13 +3099,13 @@
         <v>101.3</v>
       </c>
       <c r="JT2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="JU2" t="n">
         <v>102.3</v>
       </c>
       <c r="JV2" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="JW2" t="n">
         <v>101.3</v>
@@ -3109,7 +3114,7 @@
         <v>100.8</v>
       </c>
       <c r="JY2" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="JZ2" t="n">
         <v>98</v>
@@ -3121,7 +3126,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="KC2" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="KD2" t="n">
         <v>99.8</v>
@@ -3133,7 +3138,7 @@
         <v>103.7</v>
       </c>
       <c r="KG2" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="KH2" t="n">
         <v>103.9</v>
@@ -3160,10 +3165,10 @@
         <v>103.4</v>
       </c>
       <c r="KP2" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="KQ2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="KR2" t="n">
         <v>102</v>
@@ -3187,7 +3192,7 @@
         <v>101.8</v>
       </c>
       <c r="KY2" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="KZ2" t="n">
         <v>102.2</v>
@@ -3208,7 +3213,7 @@
         <v>108.4</v>
       </c>
       <c r="LF2" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="LG2" t="n">
         <v>108.6</v>
@@ -3244,10 +3249,10 @@
         <v>108.3</v>
       </c>
       <c r="LR2" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="LS2" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="LT2" t="n">
         <v>106.9</v>
@@ -3262,7 +3267,7 @@
         <v>103.7</v>
       </c>
       <c r="LX2" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="LY2" t="n">
         <v>102.6</v>
@@ -3280,19 +3285,19 @@
         <v>101.3</v>
       </c>
       <c r="MD2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="ME2" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="MF2" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="MG2" t="n">
         <v>100.3</v>
       </c>
       <c r="MH2" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="MI2" t="n">
         <v>98.40000000000001</v>
@@ -3304,17 +3309,17 @@
         <v>98.09999999999999</v>
       </c>
       <c r="ML2" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="MM2" t="n">
         <v>99.3</v>
       </c>
       <c r="MN2" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="MO2" t="inlineStr"/>
       <c r="MP2" t="n">
-        <v>72.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="MQ2" t="n">
         <v>79.90000000000001</v>
@@ -3326,10 +3331,10 @@
         <v>86.7</v>
       </c>
       <c r="MT2" t="n">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="MU2" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="MV2" t="n">
         <v>90.90000000000001</v>
@@ -3341,28 +3346,28 @@
         <v>96.59999999999999</v>
       </c>
       <c r="MY2" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="MZ2" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="NA2" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="NB2" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="NC2" t="n">
         <v>114.6</v>
       </c>
       <c r="ND2" t="n">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="NE2" t="n">
         <v>113.3</v>
       </c>
       <c r="NF2" t="n">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="NG2" t="n">
         <v>114.6</v>
@@ -3380,13 +3385,16 @@
         <v>112.8</v>
       </c>
       <c r="NL2" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="NM2" t="n">
         <v>109.9</v>
       </c>
       <c r="NN2" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
